--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.95731526032316</v>
+        <v>93.16737685978991</v>
       </c>
       <c r="D2" t="n">
-        <v>6.058094744838257</v>
+        <v>6.094547617074766</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.38255794385213</v>
+        <v>91.6907478731769</v>
       </c>
       <c r="D3" t="n">
-        <v>6.692088810821409</v>
+        <v>6.338255706699828</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.31747191312023</v>
+        <v>89.59819550209035</v>
       </c>
       <c r="D4" t="n">
-        <v>6.292360429126631</v>
+        <v>6.803224277183395</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.00409122348695</v>
+        <v>89.67746916411821</v>
       </c>
       <c r="D5" t="n">
-        <v>6.575311752923071</v>
+        <v>6.492827571451858</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.56396198437079</v>
+        <v>89.07460651829577</v>
       </c>
       <c r="D6" t="n">
-        <v>6.351616167249899</v>
+        <v>5.197695723827459</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.90169718692412</v>
+        <v>88.62995186609942</v>
       </c>
       <c r="D7" t="n">
-        <v>6.520492450414849</v>
+        <v>5.923514723932425</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.14011659437374</v>
+        <v>87.18163662740595</v>
       </c>
       <c r="D8" t="n">
-        <v>7.276015551658456</v>
+        <v>6.767993056428086</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.65419195312229</v>
+        <v>85.1866063433539</v>
       </c>
       <c r="D9" t="n">
-        <v>6.168737315019746</v>
+        <v>6.377443524303714</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.01678669972296</v>
+        <v>85.60426713177434</v>
       </c>
       <c r="D10" t="n">
-        <v>6.492497074396812</v>
+        <v>5.807785682447274</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.29088632631012</v>
+        <v>83.07269725923686</v>
       </c>
       <c r="D11" t="n">
-        <v>7.253368040281723</v>
+        <v>6.30599946492956</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.69106510987378</v>
+        <v>81.60693519479989</v>
       </c>
       <c r="D12" t="n">
-        <v>6.84688966646114</v>
+        <v>5.394408844930526</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.63899185327378</v>
+        <v>80.68121709574183</v>
       </c>
       <c r="D13" t="n">
-        <v>6.038143576354479</v>
+        <v>6.194127102080078</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.59876309767286</v>
+        <v>80.15656304787449</v>
       </c>
       <c r="D14" t="n">
-        <v>5.403598323955061</v>
+        <v>6.568371285791255</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.05592921296756</v>
+        <v>78.58505786597135</v>
       </c>
       <c r="D15" t="n">
-        <v>6.021638562102384</v>
+        <v>5.653161310310735</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.14498000614518</v>
+        <v>77.55554250260074</v>
       </c>
       <c r="D16" t="n">
-        <v>6.843182281659047</v>
+        <v>6.8724181851916</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.01066871070284</v>
+        <v>76.75438175105523</v>
       </c>
       <c r="D17" t="n">
-        <v>6.014033060969675</v>
+        <v>5.851355188600071</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.78806363425949</v>
+        <v>75.87648273695541</v>
       </c>
       <c r="D18" t="n">
-        <v>6.53508886630149</v>
+        <v>6.968137878259862</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.20245289836338</v>
+        <v>75.40332543569455</v>
       </c>
       <c r="D19" t="n">
-        <v>7.325687107328158</v>
+        <v>6.661450435544597</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.3296281139108</v>
+        <v>72.14522093021861</v>
       </c>
       <c r="D20" t="n">
-        <v>6.395873535989366</v>
+        <v>5.516020310394079</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.1812476644461</v>
+        <v>73.52070663792247</v>
       </c>
       <c r="D21" t="n">
-        <v>6.632494788644567</v>
+        <v>6.124358461925241</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.41721308862242</v>
+        <v>71.21577755095149</v>
       </c>
       <c r="D22" t="n">
-        <v>5.947904892467176</v>
+        <v>6.142322158502027</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.43910041700138</v>
+        <v>70.21559695493477</v>
       </c>
       <c r="D23" t="n">
-        <v>6.580915863732328</v>
+        <v>6.264042975830407</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.73247842730675</v>
+        <v>69.07799063066093</v>
       </c>
       <c r="D24" t="n">
-        <v>6.534070026323964</v>
+        <v>5.388885377768758</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.02739761673968</v>
+        <v>68.76966066041351</v>
       </c>
       <c r="D25" t="n">
-        <v>6.390818055244809</v>
+        <v>6.019892033563931</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.58557366277158</v>
+        <v>67.68647956202763</v>
       </c>
       <c r="D26" t="n">
-        <v>6.370183272773144</v>
+        <v>6.047284525557279</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.39467359539876</v>
+        <v>66.01715275303204</v>
       </c>
       <c r="D27" t="n">
-        <v>7.191205833418118</v>
+        <v>5.904741308508187</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.57383285392578</v>
+        <v>64.67829658359481</v>
       </c>
       <c r="D28" t="n">
-        <v>6.017835529956883</v>
+        <v>5.330653905392467</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.28275440051982</v>
+        <v>62.65870195771929</v>
       </c>
       <c r="D29" t="n">
-        <v>6.054439166223422</v>
+        <v>6.010020231083345</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.77512261370979</v>
+        <v>63.05771873236221</v>
       </c>
       <c r="D30" t="n">
-        <v>6.091323087923319</v>
+        <v>6.067491616372945</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.93460020746145</v>
+        <v>62.12322475349126</v>
       </c>
       <c r="D31" t="n">
-        <v>6.214643449169848</v>
+        <v>5.870634117611338</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.58425018626803</v>
+        <v>60.72612444181355</v>
       </c>
       <c r="D32" t="n">
-        <v>6.860845731126315</v>
+        <v>6.741603388204078</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.27602633504349</v>
+        <v>60.34313996145371</v>
       </c>
       <c r="D33" t="n">
-        <v>6.387236335771186</v>
+        <v>5.504963021014669</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.78701857098306</v>
+        <v>58.45584893759494</v>
       </c>
       <c r="D34" t="n">
-        <v>6.07492945933509</v>
+        <v>6.286706492436252</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.36032369216927</v>
+        <v>57.69671686216764</v>
       </c>
       <c r="D35" t="n">
-        <v>6.183195919122231</v>
+        <v>5.712729172540388</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.81574757383269</v>
+        <v>55.95583682117859</v>
       </c>
       <c r="D36" t="n">
-        <v>6.189586157522374</v>
+        <v>7.240431468518029</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.6570781890897</v>
+        <v>54.76134491189983</v>
       </c>
       <c r="D37" t="n">
-        <v>6.104351126063924</v>
+        <v>6.754261729918675</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.01529368583225</v>
+        <v>54.4509631847333</v>
       </c>
       <c r="D38" t="n">
-        <v>6.232856267616241</v>
+        <v>5.656821214827904</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.63028874663532</v>
+        <v>54.40942031901903</v>
       </c>
       <c r="D39" t="n">
-        <v>5.44144534101537</v>
+        <v>6.294915779600731</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.17930442672533</v>
+        <v>51.85036401903896</v>
       </c>
       <c r="D40" t="n">
-        <v>5.948351842873583</v>
+        <v>5.85942053052134</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.29535641714705</v>
+        <v>51.41749212019143</v>
       </c>
       <c r="D41" t="n">
-        <v>6.048854221723729</v>
+        <v>6.379886664979386</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.00452778830991</v>
+        <v>49.92648487757293</v>
       </c>
       <c r="D42" t="n">
-        <v>6.500206239754876</v>
+        <v>6.111053293351143</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.27725142262386</v>
+        <v>49.22939216378114</v>
       </c>
       <c r="D43" t="n">
-        <v>6.406772610073731</v>
+        <v>5.834705934510322</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.09051936806313</v>
+        <v>49.043767526485</v>
       </c>
       <c r="D44" t="n">
-        <v>6.242285607499383</v>
+        <v>5.86950982892156</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.1223683517828</v>
+        <v>47.11407215490927</v>
       </c>
       <c r="D45" t="n">
-        <v>6.071742160867492</v>
+        <v>5.5419166803665</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.35215100149844</v>
+        <v>45.81380527131323</v>
       </c>
       <c r="D46" t="n">
-        <v>6.806221322756789</v>
+        <v>6.310629666803005</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.60600784831728</v>
+        <v>44.7634252827482</v>
       </c>
       <c r="D47" t="n">
-        <v>6.649071979848381</v>
+        <v>5.715707230215855</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.28982833876541</v>
+        <v>44.63202744516325</v>
       </c>
       <c r="D48" t="n">
-        <v>6.614317147114425</v>
+        <v>5.917156308723857</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.95162187820043</v>
+        <v>44.2693423386381</v>
       </c>
       <c r="D49" t="n">
-        <v>6.40707970965183</v>
+        <v>5.409832862955652</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.48772767216949</v>
+        <v>41.84028639020138</v>
       </c>
       <c r="D50" t="n">
-        <v>6.423097480037471</v>
+        <v>6.214442465636821</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.53077949542037</v>
+        <v>41.51448061534281</v>
       </c>
       <c r="D51" t="n">
-        <v>6.486997630379978</v>
+        <v>6.039219753495898</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.8018550560415</v>
+        <v>40.69886042822169</v>
       </c>
       <c r="D52" t="n">
-        <v>6.806434111260014</v>
+        <v>6.085091832438387</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.51143820560944</v>
+        <v>38.75880111164119</v>
       </c>
       <c r="D53" t="n">
-        <v>5.580023345870481</v>
+        <v>5.930420276822471</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.34579509469146</v>
+        <v>37.66513656057073</v>
       </c>
       <c r="D54" t="n">
-        <v>6.741750460793974</v>
+        <v>6.323861213019843</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.33929984698325</v>
+        <v>37.72505067057592</v>
       </c>
       <c r="D55" t="n">
-        <v>5.854113619484588</v>
+        <v>6.466004431396486</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.1945503794309</v>
+        <v>35.55260246214394</v>
       </c>
       <c r="D56" t="n">
-        <v>5.788296589570081</v>
+        <v>6.532513056556315</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.96777493523508</v>
+        <v>34.77803310246026</v>
       </c>
       <c r="D57" t="n">
-        <v>6.959868993939675</v>
+        <v>6.751654843513083</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.30748013975708</v>
+        <v>34.75526238773991</v>
       </c>
       <c r="D58" t="n">
-        <v>5.903253700087619</v>
+        <v>6.167317908911934</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.83932224710043</v>
+        <v>32.85374776816501</v>
       </c>
       <c r="D59" t="n">
-        <v>6.217503318681681</v>
+        <v>6.130731454039748</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.05742731903263</v>
+        <v>32.4738252878802</v>
       </c>
       <c r="D60" t="n">
-        <v>6.083569522623516</v>
+        <v>5.456312116290106</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.60326950954111</v>
+        <v>31.30712261709153</v>
       </c>
       <c r="D61" t="n">
-        <v>5.518858979368805</v>
+        <v>5.88695709228898</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.95133888534785</v>
+        <v>31.51881155656718</v>
       </c>
       <c r="D62" t="n">
-        <v>6.648899493404972</v>
+        <v>5.352528930156927</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.34453271484593</v>
+        <v>29.55193520321349</v>
       </c>
       <c r="D63" t="n">
-        <v>5.581043220175737</v>
+        <v>5.334925837380846</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.41415120006952</v>
+        <v>28.15624882097457</v>
       </c>
       <c r="D64" t="n">
-        <v>7.467336582651255</v>
+        <v>6.06906927151132</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.90921432871551</v>
+        <v>27.25731280529535</v>
       </c>
       <c r="D65" t="n">
-        <v>6.17093045642979</v>
+        <v>7.018773689103582</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.32021949088858</v>
+        <v>26.95626810039449</v>
       </c>
       <c r="D66" t="n">
-        <v>5.895121900061259</v>
+        <v>5.716246100557147</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.95986930069346</v>
+        <v>24.52289573301774</v>
       </c>
       <c r="D67" t="n">
-        <v>5.093870759052566</v>
+        <v>6.411757471476156</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.50587035160534</v>
+        <v>24.54682612164237</v>
       </c>
       <c r="D68" t="n">
-        <v>6.594132191464002</v>
+        <v>6.240810289552848</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.51989020255565</v>
+        <v>22.68390382906918</v>
       </c>
       <c r="D69" t="n">
-        <v>6.628962001854262</v>
+        <v>5.356272956755215</v>
       </c>
     </row>
   </sheetData>
